--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб6_Гордов_В.Т..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб6_Гордов_В.Т..xlsx
@@ -1,42 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Влад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Влад\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717D9F9-DA57-4E01-BFCB-A59D6CDC0FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПодборПараметра" sheetId="1" r:id="rId1"/>
     <sheet name="КнижныеПолки" sheetId="2" r:id="rId2"/>
+    <sheet name="Сорта чая" sheetId="3" r:id="rId3"/>
+    <sheet name="Структура производства" sheetId="4" r:id="rId4"/>
+    <sheet name="Транспортная задача" sheetId="5" r:id="rId5"/>
+    <sheet name="Состав смеси" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="ProdX">'Сорта чая'!$B$8</definedName>
+    <definedName name="ProdY">'Сорта чая'!$B$9</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">КнижныеПолки!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Состав смеси'!$B$13:$B$15</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Структура производства'!$B$9:$B$10</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Транспортная задача'!$B$15:$F$18</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">КнижныеПолки!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Состав смеси'!$B$13:$B$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Структура производства'!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Транспортная задача'!$B$15:$F$18</definedName>
+    <definedName name="solver_lhs10" localSheetId="4" hidden="1">'Транспортная задача'!$G$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">КнижныеПолки!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Состав смеси'!$B$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Структура производства'!$B$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Транспортная задача'!$B$19</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">КнижныеПолки!$B$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Состав смеси'!$C$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Структура производства'!$B$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Транспортная задача'!$C$19</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Состав смеси'!$D$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Структура производства'!$C$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Транспортная задача'!$D$19</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Структура производства'!$D$18</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Транспортная задача'!$E$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'Транспортная задача'!$F$19</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'Транспортная задача'!$G$15</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">'Транспортная задача'!$G$16</definedName>
+    <definedName name="solver_lhs9" localSheetId="4" hidden="1">'Транспортная задача'!$G$17</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">КнижныеПолки!#REF!</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">10</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">КнижныеПолки!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Состав смеси'!$D$16</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Структура производства'!$C$11</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Транспортная задача'!$G$31</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.1</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">160</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="4" hidden="1">'Транспортная задача'!$G$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">1700</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Состав смеси'!$B$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Структура производства'!$B$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Транспортная задача'!$B$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Состав смеси'!$C$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">1000</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Транспортная задача'!$C$9</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Состав смеси'!$D$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Структура производства'!$C$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'Транспортная задача'!$D$9</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Структура производства'!$D$5</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">'Транспортная задача'!$E$9</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">'Транспортная задача'!$F$9</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">'Транспортная задача'!$G$4</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">'Транспортная задача'!$G$5</definedName>
+    <definedName name="solver_rhs9" localSheetId="4" hidden="1">'Транспортная задача'!$G$6</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="X">КнижныеПолки!$B$2</definedName>
+    <definedName name="Xtea">'Сорта чая'!#REF!</definedName>
     <definedName name="Y">КнижныеПолки!$B$3</definedName>
+    <definedName name="Ytea">'Сорта чая'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Ставка</t>
   </si>
@@ -83,23 +268,155 @@
     <t>Время изготовления</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>&lt;=1700</t>
-  </si>
-  <si>
-    <t>&lt;=160</t>
+    <t>Норма расхода, т/т</t>
+  </si>
+  <si>
+    <t>Объем запасов, т</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Индийский чай</t>
+  </si>
+  <si>
+    <t>Грузинский чай</t>
+  </si>
+  <si>
+    <t>Краснодарский чай</t>
+  </si>
+  <si>
+    <t>Прибыль от
+ реализации 1т
+ продукции, руб.</t>
+  </si>
+  <si>
+    <t>Ингредиенты</t>
+  </si>
+  <si>
+    <t>Изделие А</t>
+  </si>
+  <si>
+    <t>Изделие Б</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>Тип инструмента</t>
+  </si>
+  <si>
+    <t>Время обработки, ч</t>
+  </si>
+  <si>
+    <t>Прибыль от продажи 1 инстр., руб</t>
+  </si>
+  <si>
+    <t>Станок 1</t>
+  </si>
+  <si>
+    <t>Станок 2</t>
+  </si>
+  <si>
+    <t>Станок 3</t>
+  </si>
+  <si>
+    <t>Полное время работы в неделю, ч</t>
+  </si>
+  <si>
+    <t>Количество, шт</t>
+  </si>
+  <si>
+    <t>Прибыль, руб</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Стоимость транспортировки, руб</t>
+  </si>
+  <si>
+    <t>Завод</t>
+  </si>
+  <si>
+    <t>Потребитель</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Еженедельные потребности, тонн</t>
+  </si>
+  <si>
+    <t>Затраты на транспортировку, руб</t>
+  </si>
+  <si>
+    <t>План перевозок, шт.</t>
+  </si>
+  <si>
+    <t>Общие затраты</t>
+  </si>
+  <si>
+    <t>Объём производства, тонн</t>
+  </si>
+  <si>
+    <t>Содержание питательных  веществ в 1 кг продуктов,  г</t>
+  </si>
+  <si>
+    <t>Белок</t>
+  </si>
+  <si>
+    <t>Кальций</t>
+  </si>
+  <si>
+    <t>Витамины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость 
+1 кг, руб </t>
+  </si>
+  <si>
+    <t>Сено</t>
+  </si>
+  <si>
+    <t>Силос</t>
+  </si>
+  <si>
+    <t>Концентрат</t>
+  </si>
+  <si>
+    <t>Потребность</t>
+  </si>
+  <si>
+    <t>Количество в смеси, кг</t>
+  </si>
+  <si>
+    <t>Доля смеси, %</t>
+  </si>
+  <si>
+    <t>Стоимость, руб</t>
+  </si>
+  <si>
+    <t>Содержание питательных веществ в смеси, кг</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +442,91 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -157,12 +549,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -170,8 +630,132 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +1099,7 @@
         <f>A7*B7</f>
         <v>50000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <f>A7-C7</f>
         <v>200000</v>
       </c>
@@ -526,84 +1110,1329 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1">
+        <v>433.33333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6" s="1">
         <f>2*X+4*Y</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1266.6666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9" s="1">
         <f>3*X+4*Y</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <f>0.2*X+0.5*Y</f>
+        <v>136.66666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0">
+    <scenario name="Полки_1700" locked="1" count="2" user="Vladisalv" comment="Автор: Vladisalv , 07.12.2024">
+      <inputCells r="B2" val="300"/>
+      <inputCells r="B3" val="200"/>
+    </scenario>
+    <scenario name="Полки_2000" count="2" user="Vladisalv" comment="Автор: Vladisalv , 12/7/2024">
+      <inputCells r="B2" val="514.285714285714"/>
+      <inputCells r="B3" val="114.285714285714"/>
+    </scenario>
+    <scenario name="Время_200" count="2" user="Vladisalv" comment="Автор: Vladisalv , 12/7/2024">
+      <inputCells r="B2" val="71.4285714285711"/>
+      <inputCells r="B3" val="371.428571428572"/>
+    </scenario>
+    <scenario name="Изд.А_350" count="2" user="Vladisalv" comment="Автор: Vladisalv , 12/7/2024">
+      <inputCells r="B2" val="350"/>
+      <inputCells r="B3" val="162.5"/>
+    </scenario>
+    <scenario name="Изд.В_100" locked="1" count="2" user="Vladisalv" comment="Автор: Vladisalv , 07.12.2024">
+      <inputCells r="B2" val="433,333333333333"/>
+      <inputCells r="B3" val="100"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C888B-D38F-4777-9556-A36F3D13948A}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="e">
-        <f>0.2*X+0.5*Y</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3200</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2900</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <f>B3*ProdX+C3*ProdY</f>
+        <v>549.99999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>599.99999999999977</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="1">
+        <f>B4*ProdX+C4*ProdY</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1250</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <f>B6*(SUM(B3:B5))*ProdX+C6*(SUM(C3:C5))*ProdY</f>
+        <v>5544999.9999999991</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="1">
+        <f>B5*ProdX+C5*ProdY</f>
+        <v>429.99999999999989</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C1E30-0339-4B3A-B6AA-1511069DEC06}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="18">
+        <f>B9*E3</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="24">
+        <v>4000.0000000000005</v>
+      </c>
+      <c r="C10" s="18">
+        <f>B10*E4</f>
+        <v>1000000.0000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="23">
+        <f>SUM(C9:C10)</f>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B9*B3</f>
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B9*C3</f>
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B9*D3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B10*B4</f>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B10*C4</f>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B10*D4</f>
+        <v>80.000000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <f>SUM(B16:B17)</f>
+        <v>140</v>
+      </c>
+      <c r="C18" s="1">
+        <f>SUM(C16:C17)</f>
+        <v>120.00000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(D16:D17)</f>
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BCDF87-2BBC-4B31-9283-48491370BE85}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="27">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="27">
+        <v>18000</v>
+      </c>
+      <c r="E4" s="27">
+        <v>25000</v>
+      </c>
+      <c r="F4" s="27">
+        <v>35000</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27">
+        <v>6000</v>
+      </c>
+      <c r="C5" s="27">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="27">
+        <v>11000</v>
+      </c>
+      <c r="E5" s="27">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="27">
+        <v>28000</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="27">
+        <v>8000</v>
+      </c>
+      <c r="C6" s="27">
+        <v>12000</v>
+      </c>
+      <c r="D6" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="27">
+        <v>13000</v>
+      </c>
+      <c r="F6" s="27">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27">
+        <v>15000</v>
+      </c>
+      <c r="C7" s="27">
+        <v>17000</v>
+      </c>
+      <c r="D7" s="27">
+        <v>40000</v>
+      </c>
+      <c r="E7" s="27">
+        <v>45000</v>
+      </c>
+      <c r="F7" s="27">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="27">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="27">
+        <v>900</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="27">
+        <v>850</v>
+      </c>
+      <c r="E9" s="27">
+        <v>700</v>
+      </c>
+      <c r="F9" s="27">
+        <v>650</v>
+      </c>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>1</v>
+      </c>
+      <c r="B15" s="31">
+        <v>700</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
+        <v>350</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27">
+        <f>SUM(B15:F15)</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
+        <v>500</v>
+      </c>
+      <c r="E16" s="31">
+        <v>700</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" ref="G16:G18" si="0">SUM(B16:F16)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>3</v>
+      </c>
+      <c r="B17" s="31">
+        <v>200</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31">
+        <v>0</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0</v>
+      </c>
+      <c r="E18" s="31">
+        <v>0</v>
+      </c>
+      <c r="F18" s="31">
+        <v>650</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <f>SUM(B15:B18)</f>
+        <v>900</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:F19" si="1">SUM(C15:C18)</f>
+        <v>1200</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>1</v>
+      </c>
+      <c r="B27" s="27">
+        <f t="shared" ref="B27:F30" si="2">B15*B4</f>
+        <v>7000000</v>
+      </c>
+      <c r="C27" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <f t="shared" si="2"/>
+        <v>6300000</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>2</v>
+      </c>
+      <c r="B28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="27">
+        <f t="shared" si="2"/>
+        <v>5500000</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="2"/>
+        <v>2800000</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>3</v>
+      </c>
+      <c r="B29" s="27">
+        <f t="shared" si="2"/>
+        <v>1600000</v>
+      </c>
+      <c r="C29" s="27">
+        <f t="shared" si="2"/>
+        <v>14400000</v>
+      </c>
+      <c r="D29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>4</v>
+      </c>
+      <c r="B30" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <f t="shared" si="2"/>
+        <v>6500000</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <f>SUM(B27:B30)</f>
+        <v>8600000</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:F31" si="3">SUM(C27:C30)</f>
+        <v>14400000</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>11800000</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>2800000</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>6500000</v>
+      </c>
+      <c r="G31" s="33">
+        <f>SUM(B31:F31)</f>
+        <v>44100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F228A3D-5502-44D0-83FD-5365558088D6}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="34">
+        <v>50</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10</v>
+      </c>
+      <c r="D3" s="34">
+        <v>2E-3</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="34">
+        <v>70</v>
+      </c>
+      <c r="C4" s="34">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="34">
+        <v>180</v>
+      </c>
+      <c r="C5" s="34">
+        <v>3</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="34">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="34">
+        <v>210</v>
+      </c>
+      <c r="D7" s="34">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="38">
+        <v>6</v>
+      </c>
+      <c r="C13" s="36">
+        <f>B13*100/$B$16</f>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="D13" s="36">
+        <f>B13*E3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="24">
+        <v>25</v>
+      </c>
+      <c r="C14" s="36">
+        <f t="shared" ref="C14:C15" si="0">B14*100/$B$16</f>
+        <v>80.645161290322577</v>
+      </c>
+      <c r="D14" s="36">
+        <f t="shared" ref="D14:D15" si="1">B14*E4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+      <c r="C15" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6">
+        <f>SUM(B13:B15)</f>
+        <v>31</v>
+      </c>
+      <c r="C16" s="6">
+        <f>SUM(C13:C15)</f>
+        <v>100</v>
+      </c>
+      <c r="D16" s="41">
+        <f>SUM(D13:D15)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="39">
+        <f t="shared" ref="B20:D22" si="2">$B13*B3</f>
+        <v>300</v>
+      </c>
+      <c r="C20" s="39">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D20" s="39">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="39">
+        <f t="shared" si="2"/>
+        <v>1750</v>
+      </c>
+      <c r="C21" s="39">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="D21" s="39">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="40">
+        <f>SUM(B20:B22)</f>
+        <v>2050</v>
+      </c>
+      <c r="C23" s="40">
+        <f>SUM(C20:C22)</f>
+        <v>210</v>
+      </c>
+      <c r="D23" s="40">
+        <f>SUM(D20:D22)</f>
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб6_Гордов_В.Т..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Влад/Лаб6_Гордов_В.Т..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Влад\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Влад\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717D9F9-DA57-4E01-BFCB-A59D6CDC0FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ПодборПараметра" sheetId="1" r:id="rId1"/>
@@ -202,7 +201,7 @@
     <definedName name="Y">КнижныеПолки!$B$3</definedName>
     <definedName name="Ytea">'Сорта чая'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -412,7 +411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
@@ -622,19 +621,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -653,7 +644,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,14 +707,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -755,6 +742,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1036,70 +1050,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="51" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="53">
         <v>956.93779904306234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="53">
         <f>(1 +B1)*B2</f>
         <v>1000.0000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="53">
         <v>250000</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="59">
         <v>0.2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="53">
         <f>A7*B7</f>
         <v>50000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="53">
         <f>A7-C7</f>
         <v>200000</v>
       </c>
@@ -1110,76 +1125,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="53">
         <v>433.33333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="53">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="53">
         <f>2*X+4*Y</f>
         <v>1266.6666666666665</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="53">
         <f>3*X+4*Y</f>
         <v>1700</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="53">
         <f>0.2*X+0.5*Y</f>
         <v>136.66666666666669</v>
       </c>
@@ -1212,135 +1228,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3C888B-D38F-4777-9556-A36F3D13948A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>16</v>
       </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="38">
         <v>0.5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="38">
         <v>0.2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="38">
         <v>600</v>
       </c>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>0.2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>0.6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>870</v>
       </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0.3</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0.2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>430</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>3200</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>2900</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="44" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="53">
         <f>B3*ProdX+C3*ProdY</f>
         <v>549.99999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="53">
         <v>599.99999999999977</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="1">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53">
         <f>B4*ProdX+C4*ProdY</f>
         <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="37">
         <v>1250</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="53">
         <f>B6*(SUM(B3:B5))*ProdX+C6*(SUM(C3:C5))*ProdY</f>
         <v>5544999.9999999991</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="1">
+      <c r="F9" s="51"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="53">
         <f>B5*ProdX+C5*ProdY</f>
         <v>429.99999999999989</v>
       </c>
@@ -1357,11 +1409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C1E30-0339-4B3A-B6AA-1511069DEC06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,33 +1426,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1">
@@ -1412,12 +1464,12 @@
       <c r="D3" s="1">
         <v>0.06</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1">
@@ -1429,12 +1481,12 @@
       <c r="D4" s="1">
         <v>0.02</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="13">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1">
@@ -1446,86 +1498,85 @@
       <c r="D5" s="1">
         <v>150</v>
       </c>
-      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="19">
         <v>1000</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="13">
         <f>B9*E3</f>
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="19">
         <v>4000.0000000000005</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <f>B10*E4</f>
         <v>1000000.0000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="18">
         <f>SUM(C9:C10)</f>
         <v>1100000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -1542,7 +1593,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -1559,7 +1610,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1">
@@ -1587,11 +1638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BCDF87-2BBC-4B31-9283-48491370BE85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,333 +1652,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="47" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="22">
         <v>10000</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="22">
         <v>20000</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="22">
         <v>18000</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="22">
         <v>25000</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="22">
         <v>35000</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="22">
         <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="22">
         <v>6000</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="22">
         <v>10000</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="22">
         <v>11000</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="22">
         <v>4000</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <v>28000</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="22">
         <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="22">
         <v>8000</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="22">
         <v>12000</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="22">
         <v>20000</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="22">
         <v>13000</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="22">
         <v>20000</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="22">
         <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="22">
         <v>15000</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="22">
         <v>17000</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="22">
         <v>40000</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="22">
         <v>45000</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="22">
         <v>10000</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="22">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="22">
         <v>900</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="22">
         <v>1200</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="22">
         <v>850</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="22">
         <v>700</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <v>650</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="20">
         <v>1</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>700</v>
       </c>
-      <c r="C15" s="31">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
         <v>350</v>
       </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
         <f>SUM(B15:F15)</f>
         <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="20">
         <v>2</v>
       </c>
-      <c r="B16" s="31">
-        <v>0</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31">
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
         <v>500</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="26">
         <v>700</v>
       </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="22">
         <f t="shared" ref="G16:G18" si="0">SUM(B16:F16)</f>
         <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="20">
         <v>3</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <v>200</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="26">
         <v>1200</v>
       </c>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="20">
         <v>4</v>
       </c>
-      <c r="B18" s="31">
-        <v>0</v>
-      </c>
-      <c r="C18" s="31">
-        <v>0</v>
-      </c>
-      <c r="D18" s="31">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
-        <v>0</v>
-      </c>
-      <c r="F18" s="31">
+      <c r="B18" s="26">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
         <v>650</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1">
@@ -1953,156 +2004,156 @@
       <c r="G19" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="30"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="30"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="20">
         <v>1</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="22">
         <f t="shared" ref="B27:F30" si="2">B15*B4</f>
         <v>7000000</v>
       </c>
-      <c r="C27" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="27">
+      <c r="C27" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
         <f t="shared" si="2"/>
         <v>6300000</v>
       </c>
-      <c r="E27" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="28"/>
+      <c r="E27" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="20">
         <v>2</v>
       </c>
-      <c r="B28" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="B28" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
         <f t="shared" si="2"/>
         <v>5500000</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="22">
         <f t="shared" si="2"/>
         <v>2800000</v>
       </c>
-      <c r="F28" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="28"/>
+      <c r="F28" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="20">
         <v>3</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="22">
         <f t="shared" si="2"/>
         <v>1600000</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="22">
         <f t="shared" si="2"/>
         <v>14400000</v>
       </c>
-      <c r="D29" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="28"/>
+      <c r="D29" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="20">
         <v>4</v>
       </c>
-      <c r="B30" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="27">
+      <c r="B30" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
         <f t="shared" si="2"/>
         <v>6500000</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1">
@@ -2125,7 +2176,7 @@
         <f t="shared" si="3"/>
         <v>6500000</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="28">
         <f>SUM(B31:F31)</f>
         <v>44100000</v>
       </c>
@@ -2148,11 +2199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F228A3D-5502-44D0-83FD-5365558088D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,263 +2216,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="48" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="55"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="29">
         <v>50</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="29">
         <v>10</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="29">
         <v>2E-3</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="29">
         <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="29">
         <v>70</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="29">
         <v>6</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="29">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="29">
         <v>180</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="29">
         <v>3</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="29">
         <v>0.01</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="29">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="29">
         <v>2000</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="29">
         <v>210</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="33">
         <v>6</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="31">
         <f>B13*100/$B$16</f>
         <v>19.35483870967742</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="31">
         <f>B13*E3</f>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="19">
         <v>25</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="31">
         <f t="shared" ref="C14:C15" si="0">B14*100/$B$16</f>
         <v>80.645161290322577</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="31">
         <f t="shared" ref="D14:D15" si="1">B14*E4</f>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="24">
-        <v>0</v>
-      </c>
-      <c r="C15" s="36">
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <f>SUM(B13:B15)</f>
         <v>31</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <f>SUM(C13:C15)</f>
         <v>100</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="36">
         <f>SUM(D13:D15)</f>
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="34">
         <f t="shared" ref="B20:D22" si="2">$B13*B3</f>
         <v>300</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="34">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="34">
         <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="34">
         <f t="shared" si="2"/>
         <v>1750</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="34">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="34">
         <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="39">
+      <c r="B22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="35">
         <f>SUM(B20:B22)</f>
         <v>2050</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
         <v>210</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="35">
         <f>SUM(D20:D22)</f>
         <v>8.6999999999999994E-2</v>
       </c>
